--- a/data/trans_orig/Q45B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Estudios-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6957</v>
+        <v>7183</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001929409205749801</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006742629321318862</v>
+        <v>0.006961999001017006</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5360</v>
+        <v>4710</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0007145656993891585</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.004075957252425598</v>
+        <v>0.003581605601037176</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>938</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7896</v>
+        <v>8641</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001248638840629634</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0003997726890556865</v>
+        <v>0.0003998776415350111</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003364542988226398</v>
+        <v>0.003681890634831517</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>4590</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10357</v>
+        <v>10606</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004448480338080282</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00165914736575182</v>
+        <v>0.001664896766616308</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01003856906448131</v>
+        <v>0.01028021589429549</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -835,19 +835,19 @@
         <v>29771</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20392</v>
+        <v>19740</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41953</v>
+        <v>41708</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02263739163048334</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01550572285080504</v>
+        <v>0.01500978862210033</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03190082113693875</v>
+        <v>0.03171402806361188</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -856,19 +856,19 @@
         <v>34360</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22982</v>
+        <v>24224</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48224</v>
+        <v>48587</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01464112796457354</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00979293891273688</v>
+        <v>0.01032215860476399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02054838804015616</v>
+        <v>0.02070327571854574</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>1025143</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1018490</v>
+        <v>1018391</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1028778</v>
+        <v>1028932</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9936221104561699</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9871736007790136</v>
+        <v>0.9870774850075376</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9971459887658812</v>
+        <v>0.9972948526880542</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1262</v>
@@ -906,19 +906,19 @@
         <v>1284403</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1271771</v>
+        <v>1272095</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1293675</v>
+        <v>1294374</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9766480426701275</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9670434038548125</v>
+        <v>0.9672892631375826</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9836984403344996</v>
+        <v>0.9842300399282924</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2293</v>
@@ -927,19 +927,19 @@
         <v>2309544</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2294325</v>
+        <v>2294458</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2321274</v>
+        <v>2320081</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9841102331947968</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9776253602530598</v>
+        <v>0.9776820384519745</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9891081339702193</v>
+        <v>0.9885997902658965</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>6687</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2548</v>
+        <v>2745</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13671</v>
+        <v>14461</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003948984399488362</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001504602273889038</v>
+        <v>0.001621242358764856</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.008073247097917199</v>
+        <v>0.008539641646840516</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1052,19 +1052,19 @@
         <v>9452</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4279</v>
+        <v>4635</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16453</v>
+        <v>17130</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005953391982407507</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002695067223356281</v>
+        <v>0.002919068834632104</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01036273723357367</v>
+        <v>0.01078933024630698</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -1073,19 +1073,19 @@
         <v>16139</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9745</v>
+        <v>9298</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25443</v>
+        <v>25058</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004918890181903912</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002969972408782763</v>
+        <v>0.002833684798952795</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.007754494164465817</v>
+        <v>0.007637216537821592</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>31609</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21867</v>
+        <v>22337</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>44641</v>
+        <v>43166</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01866591044306122</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01291273816990552</v>
+        <v>0.01319036123885087</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02636126281896619</v>
+        <v>0.02549076093801834</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>158</v>
@@ -1123,19 +1123,19 @@
         <v>160116</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>137510</v>
+        <v>138312</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>185341</v>
+        <v>183769</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1008495877723238</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08661088699000857</v>
+        <v>0.08711621422431715</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1167374603445272</v>
+        <v>0.1157472737808905</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>190</v>
@@ -1144,19 +1144,19 @@
         <v>191725</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>167156</v>
+        <v>167826</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>219462</v>
+        <v>221840</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05843348293734319</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05094529057524064</v>
+        <v>0.05114938249938332</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06688687650835411</v>
+        <v>0.06761165515190469</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>1655117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1640639</v>
+        <v>1642389</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1665688</v>
+        <v>1665765</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9773851051574505</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9688356674351923</v>
+        <v>0.9698689300073442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9836280156063636</v>
+        <v>0.9836730364025275</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1386</v>
@@ -1194,19 +1194,19 @@
         <v>1418105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1392731</v>
+        <v>1394194</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1442408</v>
+        <v>1441395</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8931970202452686</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8772153531393393</v>
+        <v>0.8781364318983049</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9085046619875625</v>
+        <v>0.9078661499465682</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2997</v>
@@ -1215,19 +1215,19 @@
         <v>3073221</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3045311</v>
+        <v>3042011</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3099786</v>
+        <v>3099071</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9366476268807529</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9281411043557855</v>
+        <v>0.9271354442612247</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9447439508397418</v>
+        <v>0.9445260779325798</v>
       </c>
     </row>
     <row r="11">
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7439</v>
+        <v>11302</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003108128696938291</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01349057614414719</v>
+        <v>0.02049683419678732</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6476</v>
+        <v>7282</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.004388772472059963</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01359305039219513</v>
+        <v>0.01528461025591365</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1364,16 +1364,16 @@
         <v>1017</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11777</v>
+        <v>10980</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003701728598431976</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.000989911750267067</v>
+        <v>0.0009892397361263379</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01145841667421363</v>
+        <v>0.01068317037568751</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>19104</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11892</v>
+        <v>11811</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29799</v>
+        <v>30616</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03464611788491976</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02156733145210064</v>
+        <v>0.0214200619714679</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05404096582822451</v>
+        <v>0.05552292174230375</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -1411,19 +1411,19 @@
         <v>61562</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47280</v>
+        <v>47778</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77022</v>
+        <v>77082</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1292205093382116</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09924177463869767</v>
+        <v>0.100286593654324</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1616701353831511</v>
+        <v>0.1617968686401833</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -1432,19 +1432,19 @@
         <v>80666</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65075</v>
+        <v>63497</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100853</v>
+        <v>98839</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07848293694505659</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06331398507762596</v>
+        <v>0.06177848671139647</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09812318710910332</v>
+        <v>0.09616337459834201</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>530590</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>519743</v>
+        <v>518826</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>538762</v>
+        <v>538529</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.962245753418142</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9425750280463241</v>
+        <v>0.9409109423971452</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9770658243696571</v>
+        <v>0.9766440745769489</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>391</v>
@@ -1482,19 +1482,19 @@
         <v>412759</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>396902</v>
+        <v>396957</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>427319</v>
+        <v>427121</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8663907181897285</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8331069279500481</v>
+        <v>0.8332221427676131</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8969532076017491</v>
+        <v>0.8965371878335122</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>900</v>
@@ -1503,19 +1503,19 @@
         <v>943349</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>922943</v>
+        <v>924668</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>959620</v>
+        <v>961699</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9178153344565114</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8979612345980489</v>
+        <v>0.899639774342434</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9336462634978421</v>
+        <v>0.9356687300535976</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>10392</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4749</v>
+        <v>4940</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19216</v>
+        <v>20155</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003171550351621904</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001449318221657581</v>
+        <v>0.001507571368564296</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005864808367870647</v>
+        <v>0.00615137107274529</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1628,19 +1628,19 @@
         <v>12483</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6775</v>
+        <v>6535</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20821</v>
+        <v>20503</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003693965023305287</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002005012643814613</v>
+        <v>0.001933857375866797</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.006161661928311479</v>
+        <v>0.006067343117861831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1649,19 +1649,19 @@
         <v>22874</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14911</v>
+        <v>15280</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34540</v>
+        <v>35510</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003436786386297051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00224035371774499</v>
+        <v>0.002295792503078388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005189449449453151</v>
+        <v>0.005335314983916256</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>55303</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42771</v>
+        <v>42493</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>70583</v>
+        <v>72606</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01687840645968696</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01305360795077747</v>
+        <v>0.01296870506884806</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02154202166483644</v>
+        <v>0.0221592749282627</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>245</v>
@@ -1699,19 +1699,19 @@
         <v>251449</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>221321</v>
+        <v>221678</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>287028</v>
+        <v>285198</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07441088019743507</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06549511887259424</v>
+        <v>0.06560074211112686</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08493962496823815</v>
+        <v>0.08439817475393135</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>299</v>
@@ -1720,19 +1720,19 @@
         <v>306752</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>276494</v>
+        <v>272713</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>343780</v>
+        <v>342009</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04608831580254832</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04154224252154648</v>
+        <v>0.04097407782747456</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05165157759822301</v>
+        <v>0.05138561051721378</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>3210848</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3194302</v>
+        <v>3192430</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3225795</v>
+        <v>3225722</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9799500431886912</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9749001433881248</v>
+        <v>0.9743287908580693</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9845117786999074</v>
+        <v>0.9844894197820907</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3039</v>
@@ -1770,19 +1770,19 @@
         <v>3115265</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3079752</v>
+        <v>3082045</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3146847</v>
+        <v>3146420</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9218951547792597</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9113856732299949</v>
+        <v>0.9120643145761071</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9312411162820512</v>
+        <v>0.9311147108267727</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6190</v>
@@ -1791,19 +1791,19 @@
         <v>6326115</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6288387</v>
+        <v>6288471</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6356959</v>
+        <v>6361121</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9504748978111546</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9448064726065817</v>
+        <v>0.9448190043536913</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9551090887920441</v>
+        <v>0.9557345246447744</v>
       </c>
     </row>
     <row r="19">
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4783</v>
+        <v>4387</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0009025323887070578</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.004922795640353517</v>
+        <v>0.004514840202055956</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2155,19 +2155,19 @@
         <v>5289</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1931</v>
+        <v>1969</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10977</v>
+        <v>11057</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003966107731590724</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001448084858800229</v>
+        <v>0.001476573186620246</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.008231262341176672</v>
+        <v>0.008291163367878746</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2176,19 +2176,19 @@
         <v>6166</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2184</v>
+        <v>2161</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13163</v>
+        <v>13316</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00267487685972351</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0009472722659154662</v>
+        <v>0.0009372409352734557</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005710382753079665</v>
+        <v>0.005776394301760279</v>
       </c>
     </row>
     <row r="5">
@@ -2205,19 +2205,19 @@
         <v>15968</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9847</v>
+        <v>8964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26155</v>
+        <v>24461</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01643467936302642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01013536428094446</v>
+        <v>0.009226497225642668</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02691991030976913</v>
+        <v>0.02517646203413354</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -2226,19 +2226,19 @@
         <v>28360</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18583</v>
+        <v>18784</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41252</v>
+        <v>42186</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02126613019605066</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01393450602661386</v>
+        <v>0.01408498862290207</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03093257489020993</v>
+        <v>0.03163356541660232</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -2247,19 +2247,19 @@
         <v>44328</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32776</v>
+        <v>32074</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60841</v>
+        <v>59775</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01922977796923148</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01421818852607978</v>
+        <v>0.01391373432389095</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02639319598569171</v>
+        <v>0.0259305079686771</v>
       </c>
     </row>
     <row r="6">
@@ -2276,19 +2276,19 @@
         <v>954741</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>944660</v>
+        <v>946326</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>961203</v>
+        <v>961839</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9826627882482665</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9722864213542906</v>
+        <v>0.9740012583024028</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9893129850763794</v>
+        <v>0.9899679160654473</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1212</v>
@@ -2297,19 +2297,19 @@
         <v>1299949</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1284588</v>
+        <v>1285949</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1309938</v>
+        <v>1311017</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9747677620723586</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9632488491543419</v>
+        <v>0.9642697466735239</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9822577117480811</v>
+        <v>0.9830670000408392</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2100</v>
@@ -2318,19 +2318,19 @@
         <v>2254691</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2238251</v>
+        <v>2240308</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2267950</v>
+        <v>2267688</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.978095345171045</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9709636718208872</v>
+        <v>0.9718560725797407</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9838472620097549</v>
+        <v>0.9837336964301456</v>
       </c>
     </row>
     <row r="7">
@@ -2422,19 +2422,19 @@
         <v>6339</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2780</v>
+        <v>2796</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14069</v>
+        <v>14491</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003240911364170857</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001421406022857763</v>
+        <v>0.001429272567910615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.007192570840442204</v>
+        <v>0.007408559624753673</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -2443,19 +2443,19 @@
         <v>18981</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11502</v>
+        <v>12052</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30057</v>
+        <v>30020</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01084374499716602</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00657111871834841</v>
+        <v>0.006885332981936822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01717138617435751</v>
+        <v>0.01715034931445878</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -2464,19 +2464,19 @@
         <v>25320</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16100</v>
+        <v>16226</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36112</v>
+        <v>37421</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006831424859240644</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004343821586820147</v>
+        <v>0.004377767011925271</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.009742969343727995</v>
+        <v>0.01009625929543571</v>
       </c>
     </row>
     <row r="9">
@@ -2493,19 +2493,19 @@
         <v>44604</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31886</v>
+        <v>30915</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>59814</v>
+        <v>59110</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02280330563563376</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01630110387293654</v>
+        <v>0.01580482805616527</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03057913786244266</v>
+        <v>0.03021902018972665</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>133</v>
@@ -2514,19 +2514,19 @@
         <v>137164</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>115091</v>
+        <v>116061</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>162627</v>
+        <v>163278</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07836103526782991</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06575086333120771</v>
+        <v>0.06630522746167461</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09290827904136774</v>
+        <v>0.09328012119280968</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>175</v>
@@ -2535,19 +2535,19 @@
         <v>181768</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>155780</v>
+        <v>158226</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>208515</v>
+        <v>209931</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04904099379628509</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04202937361759159</v>
+        <v>0.04268922428826175</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0562573636141122</v>
+        <v>0.05663917890518001</v>
       </c>
     </row>
     <row r="10">
@@ -2564,19 +2564,19 @@
         <v>1905100</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1889670</v>
+        <v>1889073</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1918223</v>
+        <v>1918860</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9739557830001954</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9660671777399051</v>
+        <v>0.965761885003702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9806643308884935</v>
+        <v>0.9809901749495332</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1477</v>
@@ -2585,19 +2585,19 @@
         <v>1594264</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1568066</v>
+        <v>1567689</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1617970</v>
+        <v>1616000</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9107952197350041</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8958283870499051</v>
+        <v>0.8956130673661442</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9243379871317979</v>
+        <v>0.9232127380639222</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3278</v>
@@ -2606,19 +2606,19 @@
         <v>3499365</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3470776</v>
+        <v>3470337</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3527250</v>
+        <v>3524895</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9441275813444743</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9364142574421388</v>
+        <v>0.9362957397305555</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9516508060836092</v>
+        <v>0.9510154007865336</v>
       </c>
     </row>
     <row r="11">
@@ -2723,19 +2723,19 @@
         <v>8697</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3943</v>
+        <v>4050</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17190</v>
+        <v>18022</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01904163092795511</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008632757598566946</v>
+        <v>0.008866994881015904</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03763765221840775</v>
+        <v>0.03946132784167276</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -2744,19 +2744,19 @@
         <v>8697</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3939</v>
+        <v>3886</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17445</v>
+        <v>17281</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009293788719766445</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004209240206063621</v>
+        <v>0.004153339645446731</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0186435327980922</v>
+        <v>0.01846797902425058</v>
       </c>
     </row>
     <row r="13">
@@ -2773,19 +2773,19 @@
         <v>17512</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9686</v>
+        <v>10515</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28982</v>
+        <v>28598</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0365585673704949</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02022079904495288</v>
+        <v>0.02194997353559702</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06050258027769444</v>
+        <v>0.0597006734229502</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -2794,19 +2794,19 @@
         <v>64607</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48296</v>
+        <v>49332</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81760</v>
+        <v>81231</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1414611522632304</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1057469419566161</v>
+        <v>0.1080166168870792</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1790200372622334</v>
+        <v>0.1778614717842026</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -2815,19 +2815,19 @@
         <v>82119</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65889</v>
+        <v>65146</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104174</v>
+        <v>103960</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08775914277494352</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07041407541219423</v>
+        <v>0.06962052234294273</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1113288144678623</v>
+        <v>0.1111002676780878</v>
       </c>
     </row>
     <row r="14">
@@ -2844,19 +2844,19 @@
         <v>461512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>450042</v>
+        <v>450426</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>469338</v>
+        <v>468509</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9634414326295051</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9394974197223056</v>
+        <v>0.9402993265770498</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9797792009550471</v>
+        <v>0.978050026464403</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>343</v>
@@ -2865,19 +2865,19 @@
         <v>383408</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>364078</v>
+        <v>365086</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>398984</v>
+        <v>398675</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8394972168088145</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.797173834342253</v>
+        <v>0.7993817827691635</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8736035027262923</v>
+        <v>0.8729262957130103</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>764</v>
@@ -2886,19 +2886,19 @@
         <v>844919</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>822238</v>
+        <v>823260</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>862344</v>
+        <v>862667</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9029470685052901</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8787082994364417</v>
+        <v>0.8798006857256188</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9215681642142926</v>
+        <v>0.9219141402156533</v>
       </c>
     </row>
     <row r="15">
@@ -2990,19 +2990,19 @@
         <v>7216</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3369</v>
+        <v>2979</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15901</v>
+        <v>14987</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002118281935114842</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0009889123137193621</v>
+        <v>0.0008743431456944305</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.004667523161492434</v>
+        <v>0.004399191697384756</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -3011,19 +3011,19 @@
         <v>32967</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22813</v>
+        <v>22969</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47296</v>
+        <v>46673</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009310738393972416</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006442906374328499</v>
+        <v>0.006487210183784076</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01335769912898337</v>
+        <v>0.01318183566684693</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -3032,19 +3032,19 @@
         <v>40183</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28691</v>
+        <v>28085</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54612</v>
+        <v>55862</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005783907862083537</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004129781994170043</v>
+        <v>0.00404258322524571</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007860757916148058</v>
+        <v>0.008040731726322413</v>
       </c>
     </row>
     <row r="17">
@@ -3061,19 +3061,19 @@
         <v>78084</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62530</v>
+        <v>61908</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>98782</v>
+        <v>98118</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02292114378620621</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01835516312804898</v>
+        <v>0.01817279341065043</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02899664703622004</v>
+        <v>0.02880189180036978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>218</v>
@@ -3082,19 +3082,19 @@
         <v>230131</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>198365</v>
+        <v>197997</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>260072</v>
+        <v>260816</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06499561666224551</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05602383914806373</v>
+        <v>0.05591994078585402</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07345169433012465</v>
+        <v>0.07366188637103874</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>291</v>
@@ -3103,19 +3103,19 @@
         <v>308216</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>272772</v>
+        <v>272751</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>343888</v>
+        <v>343790</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0443643432716916</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03926253295250747</v>
+        <v>0.03925958971016417</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04949892677492419</v>
+        <v>0.04948489858970972</v>
       </c>
     </row>
     <row r="18">
@@ -3132,19 +3132,19 @@
         <v>3321353</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3300148</v>
+        <v>3299930</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3337260</v>
+        <v>3338960</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.974960574278679</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9687357968431173</v>
+        <v>0.9686717561284973</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9796297327717505</v>
+        <v>0.9801287718152815</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3032</v>
@@ -3153,19 +3153,19 @@
         <v>3277622</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3243511</v>
+        <v>3243864</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3311346</v>
+        <v>3309588</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.925693644943782</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9160596724219378</v>
+        <v>0.9161593069215631</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9352181526722091</v>
+        <v>0.9347217694038817</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6142</v>
@@ -3174,19 +3174,19 @@
         <v>6598975</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6561612</v>
+        <v>6561311</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6634988</v>
+        <v>6638401</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9498517488662248</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9444736759005692</v>
+        <v>0.9444304339319325</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9550353339187677</v>
+        <v>0.9555265821887478</v>
       </c>
     </row>
     <row r="19">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5553</v>
+        <v>4826</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001277706441459012</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007398791401143287</v>
+        <v>0.006429452327546921</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4713</v>
+        <v>5235</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0009470363063842384</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.004748793730756156</v>
+        <v>0.005274799163737712</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6693</v>
+        <v>6637</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001089428125701284</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003839824150514311</v>
+        <v>0.003807855832835391</v>
       </c>
     </row>
     <row r="5">
@@ -3588,19 +3588,19 @@
         <v>6897</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2927</v>
+        <v>2982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14546</v>
+        <v>13993</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009189511387436759</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003900258154781499</v>
+        <v>0.003972772001876462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01938019687447933</v>
+        <v>0.01864393810989006</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3609,19 +3609,19 @@
         <v>5165</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1802</v>
+        <v>1899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11383</v>
+        <v>11580</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005204587584436506</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001816192341717957</v>
+        <v>0.001913733346422121</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01147021608073943</v>
+        <v>0.01166849162766847</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -3630,19 +3630,19 @@
         <v>12062</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6880</v>
+        <v>6902</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21170</v>
+        <v>21621</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006920559152357805</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003947071520990986</v>
+        <v>0.003959729901722004</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01214571495542325</v>
+        <v>0.01240464790072256</v>
       </c>
     </row>
     <row r="6">
@@ -3659,19 +3659,19 @@
         <v>742695</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>734648</v>
+        <v>734992</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>746692</v>
+        <v>746669</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9895327821711042</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9788115722549152</v>
+        <v>0.9792692979291747</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9948579470284342</v>
+        <v>0.9948272825203597</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>884</v>
@@ -3680,19 +3680,19 @@
         <v>986315</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>980196</v>
+        <v>979252</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>990269</v>
+        <v>990310</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9938483761091793</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.987682318427159</v>
+        <v>0.9867310100301802</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9978327760443643</v>
+        <v>0.9978734579601582</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1634</v>
@@ -3701,19 +3701,19 @@
         <v>1729011</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1719388</v>
+        <v>1719353</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1735036</v>
+        <v>1734334</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9919900127219409</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9864688452835987</v>
+        <v>0.9864492554165574</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9954470652940045</v>
+        <v>0.9950442053457167</v>
       </c>
     </row>
     <row r="7">
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5315</v>
+        <v>4990</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0005122155548931971</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.002571541369085317</v>
+        <v>0.00241452625432059</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -3826,19 +3826,19 @@
         <v>14713</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8696</v>
+        <v>7851</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24789</v>
+        <v>22921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007439014733710576</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00439659391880799</v>
+        <v>0.003969421406146998</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01253328355471719</v>
+        <v>0.01158878156926695</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -3847,19 +3847,19 @@
         <v>15772</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8906</v>
+        <v>8997</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25192</v>
+        <v>25122</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00389956288512949</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002202002308392639</v>
+        <v>0.002224549255661028</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0062287701664507</v>
+        <v>0.006211465477305427</v>
       </c>
     </row>
     <row r="9">
@@ -3876,19 +3876,19 @@
         <v>15386</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9041</v>
+        <v>9159</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24210</v>
+        <v>25229</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007444776385877934</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.00437480801719676</v>
+        <v>0.004431977904941534</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01171472834853518</v>
+        <v>0.01220767863527086</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>71</v>
@@ -3897,19 +3897,19 @@
         <v>70183</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53720</v>
+        <v>54933</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>88056</v>
+        <v>87408</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03548432658898364</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0271607324264631</v>
+        <v>0.02777402189638463</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04452086821248633</v>
+        <v>0.04419348966627099</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>86</v>
@@ -3918,19 +3918,19 @@
         <v>85569</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>67766</v>
+        <v>67828</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>103616</v>
+        <v>104964</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02115669340116704</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01675504908519199</v>
+        <v>0.01677049528588494</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02561893383589143</v>
+        <v>0.02595219572766172</v>
       </c>
     </row>
     <row r="10">
@@ -3947,19 +3947,19 @@
         <v>2050219</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2040897</v>
+        <v>2039502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2056818</v>
+        <v>2056507</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9920430080592288</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.987532698145447</v>
+        <v>0.9868577521262217</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9952364800995546</v>
+        <v>0.9950858109666483</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1812</v>
@@ -3968,19 +3968,19 @@
         <v>1892954</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1874884</v>
+        <v>1874115</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1911389</v>
+        <v>1909574</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9570766586773057</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9479405348979587</v>
+        <v>0.9475515034297696</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9663975233850001</v>
+        <v>0.965479897150134</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3740</v>
@@ -3989,19 +3989,19 @@
         <v>3943173</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3924022</v>
+        <v>3920831</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3961760</v>
+        <v>3961965</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9749437437137035</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9702088612433168</v>
+        <v>0.9694198752067028</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9795393612166376</v>
+        <v>0.9795900146257707</v>
       </c>
     </row>
     <row r="11">
@@ -4106,7 +4106,7 @@
         <v>3037</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>8259</v>
@@ -4115,10 +4115,10 @@
         <v>0.005530503138733148</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001769838956325082</v>
+        <v>0.001758322572287791</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01504000266226594</v>
+        <v>0.01504033431776096</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -4130,16 +4130,16 @@
         <v>971</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8229</v>
+        <v>8705</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.002773651335179146</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0008865542666192909</v>
+        <v>0.0008870531056980384</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.00751500464586132</v>
+        <v>0.007950369400557144</v>
       </c>
     </row>
     <row r="13">
@@ -4156,19 +4156,19 @@
         <v>7595</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3747</v>
+        <v>2913</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14229</v>
+        <v>14274</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0139156532714091</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006864224033117728</v>
+        <v>0.005337677334679746</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02606918540419232</v>
+        <v>0.02615246103020561</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -4177,19 +4177,19 @@
         <v>28822</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19135</v>
+        <v>19331</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41013</v>
+        <v>39890</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0524855380462094</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03484600610201109</v>
+        <v>0.03520300541648397</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07468510095392313</v>
+        <v>0.07264119238206963</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -4198,19 +4198,19 @@
         <v>36417</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25718</v>
+        <v>25806</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50071</v>
+        <v>49901</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03325917586234574</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02348726894890732</v>
+        <v>0.02356847236577874</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04572881479140809</v>
+        <v>0.04557380453681015</v>
       </c>
     </row>
     <row r="14">
@@ -4227,19 +4227,19 @@
         <v>538219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>531585</v>
+        <v>531540</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>542067</v>
+        <v>542901</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9860843467285909</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9739308145958077</v>
+        <v>0.9738475389697944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9931357759668822</v>
+        <v>0.9946623226653203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>495</v>
@@ -4248,19 +4248,19 @@
         <v>517281</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>505330</v>
+        <v>505566</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>527931</v>
+        <v>527649</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9419839588150575</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.920220759409808</v>
+        <v>0.9206510197427946</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9613780958844763</v>
+        <v>0.9608643317761557</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>987</v>
@@ -4269,19 +4269,19 @@
         <v>1055501</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1041507</v>
+        <v>1042152</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1066489</v>
+        <v>1066067</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9639671728024751</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9511872015924122</v>
+        <v>0.9517762375021472</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9740028272129405</v>
+        <v>0.9736174202366467</v>
       </c>
     </row>
     <row r="15">
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6245</v>
+        <v>6965</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0005999238977284154</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.001856969749856302</v>
+        <v>0.002071043181981047</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -4394,19 +4394,19 @@
         <v>18690</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11642</v>
+        <v>11729</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28643</v>
+        <v>28418</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005310586603237146</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003307944996557204</v>
+        <v>0.003332710077545619</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008138466411882608</v>
+        <v>0.008074568191620835</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -4415,19 +4415,19 @@
         <v>20708</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13463</v>
+        <v>12826</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31418</v>
+        <v>31063</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003008772911250938</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001956203799863677</v>
+        <v>0.00186364284525877</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.004565005832647253</v>
+        <v>0.004513397451819974</v>
       </c>
     </row>
     <row r="17">
@@ -4444,19 +4444,19 @@
         <v>29878</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20069</v>
+        <v>21085</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42986</v>
+        <v>41604</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008884374847659013</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005967642738487073</v>
+        <v>0.006269695455112493</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01278186396369156</v>
+        <v>0.0123710901918289</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>104</v>
@@ -4465,19 +4465,19 @@
         <v>104170</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>85514</v>
+        <v>85958</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>127288</v>
+        <v>125815</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02959863110159221</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02429788331767747</v>
+        <v>0.02442391328238301</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03616745654363272</v>
+        <v>0.0357488639793184</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>134</v>
@@ -4486,19 +4486,19 @@
         <v>134048</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>112664</v>
+        <v>113753</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>157297</v>
+        <v>158027</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01947683685619736</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01636974008777447</v>
+        <v>0.016527984700026</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02285479379497854</v>
+        <v>0.02296094633179543</v>
       </c>
     </row>
     <row r="18">
@@ -4515,19 +4515,19 @@
         <v>3331132</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3318371</v>
+        <v>3318581</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3341424</v>
+        <v>3340307</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9905157012546125</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9867213004068897</v>
+        <v>0.9867835390587976</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9935758803441855</v>
+        <v>0.9932437677789534</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3191</v>
@@ -4536,19 +4536,19 @@
         <v>3396551</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3371125</v>
+        <v>3373362</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3415498</v>
+        <v>3416541</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9650907822951706</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9578663183519455</v>
+        <v>0.9585018225752155</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9704744176427528</v>
+        <v>0.9707705792066129</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6361</v>
@@ -4557,19 +4557,19 @@
         <v>6727683</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6703336</v>
+        <v>6702509</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6750320</v>
+        <v>6750140</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9775143902325517</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9739767518385281</v>
+        <v>0.9738566572783263</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9808034405141014</v>
+        <v>0.9807772897780928</v>
       </c>
     </row>
     <row r="19">
